--- a/examples/sizing/inputs_sizing.xlsx
+++ b/examples/sizing/inputs_sizing.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,10 +474,10 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>32.299999999999997</v>
+        <v>300</v>
       </c>
       <c r="F2">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="G4">
         <v>0</v>

--- a/examples/sizing/inputs_sizing.xlsx
+++ b/examples/sizing/inputs_sizing.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,10 +474,10 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="F2">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F3">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G4">
         <v>0</v>
